--- a/Passes avant un but/2022_2023.xlsx
+++ b/Passes avant un but/2022_2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
           <t>Passe</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Top 5</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -459,9 +454,6 @@
       <c r="B2" t="n">
         <v>5.823529411764706</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -472,9 +464,6 @@
       <c r="B3" t="n">
         <v>6.260869565217392</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -485,9 +474,6 @@
       <c r="B4" t="n">
         <v>7.184210526315789</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -498,9 +484,6 @@
       <c r="B5" t="n">
         <v>4.878048780487805</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -511,9 +494,6 @@
       <c r="B6" t="n">
         <v>5.857142857142857</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -524,9 +504,6 @@
       <c r="B7" t="n">
         <v>4.294117647058823</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -537,9 +514,6 @@
       <c r="B8" t="n">
         <v>5.085714285714285</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -550,9 +524,6 @@
       <c r="B9" t="n">
         <v>4.806451612903226</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -563,9 +534,6 @@
       <c r="B10" t="n">
         <v>5.837209302325581</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -576,9 +544,6 @@
       <c r="B11" t="n">
         <v>5.256410256410256</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -589,9 +554,6 @@
       <c r="B12" t="n">
         <v>6.578947368421052</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -602,9 +564,6 @@
       <c r="B13" t="n">
         <v>5.7</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -615,9 +574,6 @@
       <c r="B14" t="n">
         <v>7.051282051282051</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -628,9 +584,6 @@
       <c r="B15" t="n">
         <v>7.5</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -641,9 +594,6 @@
       <c r="B16" t="n">
         <v>6.655172413793103</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -654,9 +604,6 @@
       <c r="B17" t="n">
         <v>5.476190476190476</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -667,9 +614,6 @@
       <c r="B18" t="n">
         <v>5.903225806451613</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -680,9 +624,6 @@
       <c r="B19" t="n">
         <v>6.547169811320755</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -693,9 +634,6 @@
       <c r="B20" t="n">
         <v>6.568181818181818</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -705,9 +643,6 @@
       </c>
       <c r="B21" t="n">
         <v>4.735294117647059</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
